--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -26,10 +26,10 @@
     <t>User Login with Valid Credentials</t>
   </si>
   <si>
-    <t>PASSED</t>
+    <t>FAILED</t>
   </si>
   <si>
-    <t>Tue Mar 25 10:37:53 IST 2025</t>
+    <t>Tue Mar 25 10:52:53 IST 2025</t>
   </si>
 </sst>
 </file>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -26,10 +26,13 @@
     <t>User Login with Valid Credentials</t>
   </si>
   <si>
-    <t>FAILED</t>
+    <t>PASSED</t>
   </si>
   <si>
-    <t>Tue Mar 25 10:52:53 IST 2025</t>
+    <t>Tue Mar 25 16:11:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Verify Home Page Loads Successfully</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,6 +105,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -29,10 +29,13 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Tue Mar 25 16:11:15 IST 2025</t>
+    <t>Tue Mar 25 16:16:42 IST 2025</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 16:16:43 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -32,7 +32,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Wed Mar 26 15:15:54 IST 2025</t>
+    <t>Wed Mar 26 18:44:32 IST 2025</t>
   </si>
   <si>
     <t>Test executed successfully.</t>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -32,10 +32,16 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Wed Mar 26 18:44:32 IST 2025</t>
+    <t>Thu Mar 27 12:56:16 IST 2025</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
+  </si>
+  <si>
+    <t>User Login with Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 12:56:21 IST 2025</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -83,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,9 +131,23 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Step Name</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -29,10 +32,13 @@
     <t>User Login with Valid Credentials</t>
   </si>
   <si>
+    <t>No Sub-Steps</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>Thu Mar 27 12:56:16 IST 2025</t>
+    <t>Thu Mar 27 13:31:11 IST 2025</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -41,7 +47,34 @@
     <t>User Login with Invalid Credentials</t>
   </si>
   <si>
-    <t>Thu Mar 27 12:56:21 IST 2025</t>
+    <t>Invalid Email Attempt</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 13:31:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Error displayed correctly</t>
+  </si>
+  <si>
+    <t>Clear User ID Field</t>
+  </si>
+  <si>
+    <t>Field cleared successfully</t>
+  </si>
+  <si>
+    <t>Invalid OTP Attempt</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 13:31:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Error displayed correctly for invalid OTP</t>
+  </si>
+  <si>
+    <t>Click 'Go to Sign In'</t>
+  </si>
+  <si>
+    <t>Navigated back to Get OTP page successfully</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -89,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,33 +141,42 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -142,13 +184,84 @@
         <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:31:11 IST 2025</t>
+    <t>Thu Mar 27 13:35:15 IST 2025</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -50,7 +50,7 @@
     <t>Invalid Email Attempt</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:31:15 IST 2025</t>
+    <t>Thu Mar 27 13:35:19 IST 2025</t>
   </si>
   <si>
     <t>Error displayed correctly</t>
@@ -65,7 +65,7 @@
     <t>Invalid OTP Attempt</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:31:17 IST 2025</t>
+    <t>Thu Mar 27 13:35:21 IST 2025</t>
   </si>
   <si>
     <t>Error displayed correctly for invalid OTP</t>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Navigated back to Get OTP page successfully</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 13:35:23 IST 2025</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -241,7 +244,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>9</v>
@@ -249,7 +252,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>6</v>
@@ -258,7 +261,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>9</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+  <si>
+    <t>Test Case ID</t>
+  </si>
   <si>
     <t>Test Case Name</t>
   </si>
@@ -38,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:35:15 IST 2025</t>
+    <t>03/27/2025 06:12:34 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -50,34 +53,37 @@
     <t>Invalid Email Attempt</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:35:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Error displayed correctly</t>
-  </si>
-  <si>
-    <t>Clear User ID Field</t>
-  </si>
-  <si>
-    <t>Field cleared successfully</t>
+    <t>03/27/2025 06:12:37 PM</t>
+  </si>
+  <si>
+    <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
+  </si>
+  <si>
+    <t>Not Registered Email Attempt</t>
+  </si>
+  <si>
+    <t>03/27/2025 06:12:38 PM</t>
+  </si>
+  <si>
+    <t>Error Message -&gt; No such user found</t>
   </si>
   <si>
     <t>Invalid OTP Attempt</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:35:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Error displayed correctly for invalid OTP</t>
-  </si>
-  <si>
-    <t>Click 'Go to Sign In'</t>
+    <t>03/27/2025 06:12:40 PM</t>
+  </si>
+  <si>
+    <t>Error Message -&gt; Incorrect OTP</t>
+  </si>
+  <si>
+    <t>Click Go to Sign In</t>
   </si>
   <si>
     <t>Navigated back to Get OTP page successfully</t>
   </si>
   <si>
-    <t>Thu Mar 27 13:35:23 IST 2025</t>
+    <t>03/27/2025 06:12:41 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -88,13 +94,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,40 +128,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>6</v>
@@ -164,107 +179,128 @@
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="F3" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
+      <c r="A4" t="n" s="0">
+        <v>2.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>10</v>
+      <c r="A5" t="n" s="0">
+        <v>2.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>10</v>
+      <c r="A6" t="n" s="0">
+        <v>2.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>20</v>
+      <c r="F6" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>10</v>
+      <c r="A7" t="n" s="0">
+        <v>2.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>22</v>
+      <c r="A8" t="n" s="0">
+        <v>3.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03/27/2025 06:12:34 PM</t>
+    <t>03/27/2025 06:24:01 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -53,7 +53,7 @@
     <t>Invalid Email Attempt</t>
   </si>
   <si>
-    <t>03/27/2025 06:12:37 PM</t>
+    <t>03/27/2025 06:24:06 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
@@ -62,7 +62,7 @@
     <t>Not Registered Email Attempt</t>
   </si>
   <si>
-    <t>03/27/2025 06:12:38 PM</t>
+    <t>03/27/2025 06:24:07 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; No such user found</t>
@@ -71,7 +71,7 @@
     <t>Invalid OTP Attempt</t>
   </si>
   <si>
-    <t>03/27/2025 06:12:40 PM</t>
+    <t>03/27/2025 06:24:09 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; Incorrect OTP</t>
@@ -83,7 +83,7 @@
     <t>Navigated back to Get OTP page successfully</t>
   </si>
   <si>
-    <t>03/27/2025 06:12:41 PM</t>
+    <t>03/27/2025 06:24:10 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03/27/2025 06:24:01 PM</t>
+    <t>28/03/2025 10:42:39 AM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -53,7 +53,7 @@
     <t>Invalid Email Attempt</t>
   </si>
   <si>
-    <t>03/27/2025 06:24:06 PM</t>
+    <t>28/03/2025 10:42:43 AM</t>
   </si>
   <si>
     <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
@@ -62,7 +62,7 @@
     <t>Not Registered Email Attempt</t>
   </si>
   <si>
-    <t>03/27/2025 06:24:07 PM</t>
+    <t>28/03/2025 10:42:45 AM</t>
   </si>
   <si>
     <t>Error Message -&gt; No such user found</t>
@@ -71,7 +71,7 @@
     <t>Invalid OTP Attempt</t>
   </si>
   <si>
-    <t>03/27/2025 06:24:09 PM</t>
+    <t>28/03/2025 10:42:47 AM</t>
   </si>
   <si>
     <t>Error Message -&gt; Incorrect OTP</t>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Navigated back to Get OTP page successfully</t>
-  </si>
-  <si>
-    <t>03/27/2025 06:24:10 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -277,7 +274,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>10</v>
@@ -288,7 +285,7 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>7</v>
@@ -297,7 +294,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>10</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -41,46 +41,58 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>28/03/2025 10:42:39 AM</t>
+    <t>28/03/2025 03:09:19 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Invalid Email Attempt</t>
+  </si>
+  <si>
+    <t>28/03/2025 03:09:22 PM</t>
+  </si>
+  <si>
+    <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
+  </si>
+  <si>
+    <t>Not Registered Email Attempt</t>
+  </si>
+  <si>
+    <t>28/03/2025 03:09:23 PM</t>
+  </si>
+  <si>
+    <t>Error Message -&gt; No such user found</t>
+  </si>
+  <si>
+    <t>Invalid OTP Attempt</t>
+  </si>
+  <si>
+    <t>28/03/2025 03:09:25 PM</t>
+  </si>
+  <si>
+    <t>Error Message -&gt; Incorrect OTP</t>
+  </si>
+  <si>
+    <t>Account Blocked After Multiple Wrong OTPs</t>
+  </si>
+  <si>
+    <t>28/03/2025 03:09:30 PM</t>
+  </si>
+  <si>
+    <t>You have reached the maximum login attempts for the day. Please try again after 24 hours.</t>
+  </si>
+  <si>
+    <t>Click Go to Sign In</t>
+  </si>
+  <si>
+    <t>Navigated back to Get OTP page successfully</t>
+  </si>
+  <si>
     <t>User Login with Invalid Credentials</t>
-  </si>
-  <si>
-    <t>Invalid Email Attempt</t>
-  </si>
-  <si>
-    <t>28/03/2025 10:42:43 AM</t>
-  </si>
-  <si>
-    <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
-  </si>
-  <si>
-    <t>Not Registered Email Attempt</t>
-  </si>
-  <si>
-    <t>28/03/2025 10:42:45 AM</t>
-  </si>
-  <si>
-    <t>Error Message -&gt; No such user found</t>
-  </si>
-  <si>
-    <t>Invalid OTP Attempt</t>
-  </si>
-  <si>
-    <t>28/03/2025 10:42:47 AM</t>
-  </si>
-  <si>
-    <t>Error Message -&gt; Incorrect OTP</t>
-  </si>
-  <si>
-    <t>Click Go to Sign In</t>
-  </si>
-  <si>
-    <t>Navigated back to Get OTP page successfully</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -134,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -254,10 +266,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -268,16 +280,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -285,7 +297,7 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>7</v>
@@ -294,9 +306,29 @@
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>10</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>28/03/2025 03:09:19 PM</t>
+    <t>28/03/2025 03:19:15 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -53,7 +53,7 @@
     <t>Invalid Email Attempt</t>
   </si>
   <si>
-    <t>28/03/2025 03:09:22 PM</t>
+    <t>28/03/2025 03:19:17 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
@@ -62,7 +62,7 @@
     <t>Not Registered Email Attempt</t>
   </si>
   <si>
-    <t>28/03/2025 03:09:23 PM</t>
+    <t>28/03/2025 03:19:19 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; No such user found</t>
@@ -71,19 +71,10 @@
     <t>Invalid OTP Attempt</t>
   </si>
   <si>
-    <t>28/03/2025 03:09:25 PM</t>
+    <t>28/03/2025 03:19:22 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; Incorrect OTP</t>
-  </si>
-  <si>
-    <t>Account Blocked After Multiple Wrong OTPs</t>
-  </si>
-  <si>
-    <t>28/03/2025 03:09:30 PM</t>
-  </si>
-  <si>
-    <t>You have reached the maximum login attempts for the day. Please try again after 24 hours.</t>
   </si>
   <si>
     <t>Click Go to Sign In</t>
@@ -146,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -266,38 +257,38 @@
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>7</v>
@@ -306,29 +297,9 @@
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s" s="0">
         <v>10</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>28/03/2025 03:19:15 PM</t>
+    <t>28/03/2025 03:46:14 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -53,7 +53,7 @@
     <t>Invalid Email Attempt</t>
   </si>
   <si>
-    <t>28/03/2025 03:19:17 PM</t>
+    <t>28/03/2025 03:46:17 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
@@ -62,7 +62,7 @@
     <t>Not Registered Email Attempt</t>
   </si>
   <si>
-    <t>28/03/2025 03:19:19 PM</t>
+    <t>28/03/2025 03:46:18 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; No such user found</t>
@@ -71,12 +71,21 @@
     <t>Invalid OTP Attempt</t>
   </si>
   <si>
-    <t>28/03/2025 03:19:22 PM</t>
+    <t>28/03/2025 03:46:21 PM</t>
   </si>
   <si>
     <t>Error Message -&gt; Incorrect OTP</t>
   </si>
   <si>
+    <t>Account Blocked After Multiple Wrong OTPs</t>
+  </si>
+  <si>
+    <t>28/03/2025 03:46:25 PM</t>
+  </si>
+  <si>
+    <t>You have reached the maximum login attempts for the day. Please try again after 24 hours.</t>
+  </si>
+  <si>
     <t>Click Go to Sign In</t>
   </si>
   <si>
@@ -84,6 +93,24 @@
   </si>
   <si>
     <t>User Login with Invalid Credentials</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>28/03/2025 03:46:26 PM</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found in the current frame
+  (Session info: chrome=134.0.6998.166)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.29.0', revision: '5fc1ec94cb'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '23.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f0be20835ff80e2a170a0b82c403494d, clickElement {id=f.00095D8C67BDCF3ABF05023232D37247.d.F5A6A02415C47404393A2FB587A4C4BE.e.31}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.166, chrome: {chromedriverVersion: 134.0.6998.165 (fd886e2cb29..., userDataDir: C:\Users\Admin\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58998}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58998/devtoo..., se:cdpVersion: 134.0.6998.166, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (f0be20835ff80e2a170a0b82c403494d)] -&gt; xpath: //button[@id='loginButton']]
+Session ID: f0be20835ff80e2a170a0b82c403494d</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -137,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -257,49 +284,69 @@
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>10</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>28/03/2025 03:46:14 PM</t>
+    <t>01/04/2025 01:11:31 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -50,70 +50,55 @@
     <t/>
   </si>
   <si>
-    <t>Invalid Email Attempt</t>
-  </si>
-  <si>
-    <t>28/03/2025 03:46:17 PM</t>
-  </si>
-  <si>
-    <t>Error Message -&gt; Invalid email address. Please enter a valid email</t>
-  </si>
-  <si>
-    <t>Not Registered Email Attempt</t>
-  </si>
-  <si>
-    <t>28/03/2025 03:46:18 PM</t>
-  </si>
-  <si>
-    <t>Error Message -&gt; No such user found</t>
-  </si>
-  <si>
-    <t>Invalid OTP Attempt</t>
-  </si>
-  <si>
-    <t>28/03/2025 03:46:21 PM</t>
-  </si>
-  <si>
-    <t>Error Message -&gt; Incorrect OTP</t>
-  </si>
-  <si>
-    <t>Account Blocked After Multiple Wrong OTPs</t>
-  </si>
-  <si>
-    <t>28/03/2025 03:46:25 PM</t>
-  </si>
-  <si>
-    <t>You have reached the maximum login attempts for the day. Please try again after 24 hours.</t>
-  </si>
-  <si>
-    <t>Click Go to Sign In</t>
-  </si>
-  <si>
-    <t>Navigated back to Get OTP page successfully</t>
-  </si>
-  <si>
-    <t>User Login with Invalid Credentials</t>
+    <t>01/04/2025 01:11:33 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Invalid Email</t>
+  </si>
+  <si>
+    <t>01/04/2025 01:11:36 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Not Registred Email</t>
+  </si>
+  <si>
+    <t>01/04/2025 01:11:37 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Invalid OTP</t>
+  </si>
+  <si>
+    <t>01/04/2025 01:11:39 PM</t>
+  </si>
+  <si>
+    <t>Verify account block after attempting wrong OTP for 5 times</t>
+  </si>
+  <si>
+    <t>01/04/2025 01:11:51 PM</t>
+  </si>
+  <si>
+    <t>Verify Go To Sign In page Navigation</t>
+  </si>
+  <si>
+    <t>01/04/2025 01:11:53 PM</t>
+  </si>
+  <si>
+    <t>Verify that navigation and getOTP blocked for blocked account</t>
+  </si>
+  <si>
+    <t>01/04/2025 01:11:54 PM</t>
+  </si>
+  <si>
+    <t>Verify Home Page Loads Successfully</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>28/03/2025 03:46:26 PM</t>
-  </si>
-  <si>
-    <t>stale element reference: stale element not found in the current frame
-  (Session info: chrome=134.0.6998.166)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
-Build info: version: '4.29.0', revision: '5fc1ec94cb'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '23.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [f0be20835ff80e2a170a0b82c403494d, clickElement {id=f.00095D8C67BDCF3ABF05023232D37247.d.F5A6A02415C47404393A2FB587A4C4BE.e.31}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.166, chrome: {chromedriverVersion: 134.0.6998.165 (fd886e2cb29..., userDataDir: C:\Users\Admin\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58998}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58998/devtoo..., se:cdpVersion: 134.0.6998.166, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (f0be20835ff80e2a170a0b82c403494d)] -&gt; xpath: //button[@id='loginButton']]
-Session ID: f0be20835ff80e2a170a0b82c403494d</t>
-  </si>
-  <si>
-    <t>Verify Home Page Loads Successfully</t>
+    <t>01/04/2025 01:12:05 PM</t>
+  </si>
+  <si>
+    <t>Home Page did not load successfully. expected [true] but found [false]</t>
   </si>
 </sst>
 </file>
@@ -164,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -218,124 +203,124 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="F3" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>7</v>
@@ -344,10 +329,30 @@
         <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -20,9 +20,6 @@
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>Step Name</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -35,13 +32,10 @@
     <t>User Login with Valid Credentials</t>
   </si>
   <si>
-    <t>No Sub-Steps</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:31 PM</t>
+    <t>01/04/2025 01:30:37 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -50,43 +44,40 @@
     <t/>
   </si>
   <si>
-    <t>01/04/2025 01:11:33 PM</t>
+    <t>01/04/2025 01:30:39 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:36 PM</t>
+    <t>01/04/2025 01:30:40 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:37 PM</t>
-  </si>
-  <si>
     <t>Verify Login with Invalid OTP</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:39 PM</t>
+    <t>01/04/2025 01:30:43 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:51 PM</t>
+    <t>01/04/2025 01:30:55 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:53 PM</t>
+    <t>01/04/2025 01:30:57 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>01/04/2025 01:11:54 PM</t>
+    <t>01/04/2025 01:30:58 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -95,7 +86,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>01/04/2025 01:12:05 PM</t>
+    <t>01/04/2025 01:31:09 PM</t>
   </si>
   <si>
     <t>Home Page did not load successfully. expected [true] but found [false]</t>
@@ -149,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,28 +162,22 @@
       <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -200,19 +185,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -220,19 +202,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -240,19 +219,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -260,19 +236,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -280,19 +253,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -300,19 +270,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -320,19 +287,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -340,19 +304,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>01/04/2025 01:30:37 PM</t>
+    <t>01/04/2025 01:36:14 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,13 +44,13 @@
     <t/>
   </si>
   <si>
-    <t>01/04/2025 01:30:39 PM</t>
+    <t>01/04/2025 01:36:16 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>01/04/2025 01:30:40 PM</t>
+    <t>01/04/2025 01:36:17 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
@@ -59,37 +59,28 @@
     <t>Verify Login with Invalid OTP</t>
   </si>
   <si>
-    <t>01/04/2025 01:30:43 PM</t>
+    <t>01/04/2025 01:36:20 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>01/04/2025 01:30:55 PM</t>
+    <t>01/04/2025 01:36:32 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>01/04/2025 01:30:57 PM</t>
+    <t>01/04/2025 01:36:34 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>01/04/2025 01:30:58 PM</t>
+    <t>01/04/2025 01:36:35 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>01/04/2025 01:31:09 PM</t>
-  </si>
-  <si>
-    <t>Home Page did not load successfully. expected [true] but found [false]</t>
   </si>
 </sst>
 </file>
@@ -307,13 +298,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,49 +35,46 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>01/04/2025 01:36:14 PM</t>
+    <t>01/04/2025 01:55:45 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>01/04/2025 01:36:16 PM</t>
-  </si>
-  <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>01/04/2025 01:36:17 PM</t>
+    <t>01/04/2025 01:55:47 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
+    <t>01/04/2025 01:55:48 PM</t>
+  </si>
+  <si>
     <t>Verify Login with Invalid OTP</t>
   </si>
   <si>
-    <t>01/04/2025 01:36:20 PM</t>
+    <t>01/04/2025 01:55:51 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>01/04/2025 01:36:32 PM</t>
+    <t>01/04/2025 01:56:03 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>01/04/2025 01:36:34 PM</t>
+    <t>01/04/2025 01:56:05 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>01/04/2025 01:36:35 PM</t>
+    <t>01/04/2025 01:56:06 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -131,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -216,7 +213,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>8</v>
@@ -227,13 +224,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>8</v>
@@ -244,13 +241,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -261,13 +258,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -278,32 +275,15 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="E9" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,46 +35,46 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>01/04/2025 01:55:45 PM</t>
+    <t>01/04/2025 05:20:53 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
   </si>
   <si>
+    <t>Verify empty email state</t>
+  </si>
+  <si>
+    <t>01/04/2025 05:20:56 PM</t>
+  </si>
+  <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>01/04/2025 01:55:47 PM</t>
+    <t>01/04/2025 05:20:57 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>01/04/2025 01:55:48 PM</t>
-  </si>
-  <si>
     <t>Verify Login with Invalid OTP</t>
   </si>
   <si>
-    <t>01/04/2025 01:55:51 PM</t>
+    <t>01/04/2025 05:21:00 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>01/04/2025 01:56:03 PM</t>
+    <t>01/04/2025 05:21:12 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>01/04/2025 01:56:05 PM</t>
+    <t>01/04/2025 05:21:15 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
-  </si>
-  <si>
-    <t>01/04/2025 01:56:06 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -128,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,7 +213,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>8</v>
@@ -224,13 +224,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>16</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>8</v>
@@ -241,13 +241,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -258,13 +258,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -275,15 +275,32 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>01/04/2025 05:20:53 PM</t>
+    <t>02/04/2025 01:07:39 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,37 +44,49 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>01/04/2025 05:20:56 PM</t>
+    <t>02/04/2025 01:07:42 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>01/04/2025 05:20:57 PM</t>
+    <t>02/04/2025 01:07:43 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
+    <t>02/04/2025 01:07:44 PM</t>
+  </si>
+  <si>
     <t>Verify Login with Invalid OTP</t>
   </si>
   <si>
-    <t>01/04/2025 05:21:00 PM</t>
+    <t>02/04/2025 01:07:46 PM</t>
+  </si>
+  <si>
+    <t>Verify Resend OTP button</t>
+  </si>
+  <si>
+    <t>02/04/2025 01:08:48 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>01/04/2025 05:21:12 PM</t>
+    <t>02/04/2025 01:09:00 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>01/04/2025 05:21:15 PM</t>
+    <t>02/04/2025 01:09:02 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
+  </si>
+  <si>
+    <t>02/04/2025 01:09:03 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -128,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,7 +225,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>8</v>
@@ -224,13 +236,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>8</v>
@@ -241,13 +253,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -258,13 +270,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -275,13 +287,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>8</v>
@@ -292,15 +304,32 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>02/04/2025 01:07:39 PM</t>
+    <t>02/04/2025 01:46:49 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,49 +44,52 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>02/04/2025 01:07:42 PM</t>
+    <t>02/04/2025 01:46:52 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>02/04/2025 01:07:43 PM</t>
+    <t>02/04/2025 01:46:53 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>02/04/2025 01:07:44 PM</t>
+    <t>02/04/2025 01:46:54 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid OTP</t>
   </si>
   <si>
-    <t>02/04/2025 01:07:46 PM</t>
+    <t>02/04/2025 01:46:56 PM</t>
+  </si>
+  <si>
+    <t>Verify same email on OTP page</t>
   </si>
   <si>
     <t>Verify Resend OTP button</t>
   </si>
   <si>
-    <t>02/04/2025 01:08:48 PM</t>
+    <t>02/04/2025 01:47:58 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>02/04/2025 01:09:00 PM</t>
+    <t>02/04/2025 01:48:10 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>02/04/2025 01:09:02 PM</t>
+    <t>02/04/2025 01:48:12 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>02/04/2025 01:09:03 PM</t>
+    <t>02/04/2025 01:48:13 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -140,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -259,7 +262,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -270,13 +273,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -287,13 +290,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>8</v>
@@ -304,13 +307,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>24</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>8</v>
@@ -321,15 +324,32 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="E11" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>02/04/2025 01:46:49 PM</t>
+    <t>02/04/2025 04:40:56 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,25 +44,31 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>02/04/2025 01:46:52 PM</t>
+    <t>02/04/2025 04:41:00 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>02/04/2025 01:46:53 PM</t>
+    <t>02/04/2025 04:41:01 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>02/04/2025 01:46:54 PM</t>
-  </si>
-  <si>
-    <t>Verify Login with Invalid OTP</t>
-  </si>
-  <si>
-    <t>02/04/2025 01:46:56 PM</t>
+    <t>02/04/2025 04:41:02 PM</t>
+  </si>
+  <si>
+    <t>Verify admin viewer Shouldn't be able to login</t>
+  </si>
+  <si>
+    <t>02/04/2025 04:41:03 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Wrong OTP</t>
+  </si>
+  <si>
+    <t>02/04/2025 04:41:06 PM</t>
   </si>
   <si>
     <t>Verify same email on OTP page</t>
@@ -71,25 +77,25 @@
     <t>Verify Resend OTP button</t>
   </si>
   <si>
-    <t>02/04/2025 01:47:58 PM</t>
+    <t>02/04/2025 04:42:08 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>02/04/2025 01:48:10 PM</t>
+    <t>02/04/2025 04:42:20 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>02/04/2025 01:48:12 PM</t>
+    <t>02/04/2025 04:42:22 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>02/04/2025 01:48:13 PM</t>
+    <t>02/04/2025 04:42:23 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -143,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -262,7 +268,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -273,13 +279,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>19</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -347,9 +353,26 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>02/04/2025 04:40:56 PM</t>
+    <t>02/04/2025 05:02:57 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,31 +44,28 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>02/04/2025 04:41:00 PM</t>
+    <t>02/04/2025 05:03:00 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>02/04/2025 04:41:01 PM</t>
+    <t>02/04/2025 05:03:01 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>02/04/2025 04:41:02 PM</t>
-  </si>
-  <si>
     <t>Verify admin viewer Shouldn't be able to login</t>
   </si>
   <si>
-    <t>02/04/2025 04:41:03 PM</t>
+    <t>02/04/2025 05:03:02 PM</t>
   </si>
   <si>
     <t>Verify Login with Wrong OTP</t>
   </si>
   <si>
-    <t>02/04/2025 04:41:06 PM</t>
+    <t>02/04/2025 05:03:05 PM</t>
   </si>
   <si>
     <t>Verify same email on OTP page</t>
@@ -77,25 +74,22 @@
     <t>Verify Resend OTP button</t>
   </si>
   <si>
-    <t>02/04/2025 04:42:08 PM</t>
+    <t>02/04/2025 05:04:06 PM</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>02/04/2025 04:42:20 PM</t>
+    <t>02/04/2025 05:04:18 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>02/04/2025 04:42:22 PM</t>
+    <t>02/04/2025 05:04:21 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
-  </si>
-  <si>
-    <t>02/04/2025 04:42:23 PM</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -234,7 +228,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>8</v>
@@ -245,13 +239,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>16</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>8</v>
@@ -262,13 +256,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -279,13 +273,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -296,13 +290,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>8</v>
@@ -313,13 +307,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>8</v>
@@ -330,13 +324,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>8</v>
@@ -347,13 +341,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>8</v>
@@ -364,13 +358,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>8</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>02/04/2025 05:02:57 PM</t>
+    <t>03/04/2025 12:07:58 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,13 +44,30 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>02/04/2025 05:03:00 PM</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>03/04/2025 12:08:03 PM</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[@id='loginButton']"}
+  (Session info: chrome=134.0.6998.179)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.29.0', revision: '5fc1ec94cb'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '23.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [81ec64fa8daf30c077d70ca098674836, findElement {value=//button[@id='loginButton'], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.179, chrome: {chromedriverVersion: 134.0.6998.165 (fd886e2cb29..., userDataDir: C:\Users\Admin\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49661}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49661/devtoo..., se:cdpVersion: 134.0.6998.179, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 81ec64fa8daf30c077d70ca098674836</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>02/04/2025 05:03:01 PM</t>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>Test was skipped.</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
@@ -59,37 +76,25 @@
     <t>Verify admin viewer Shouldn't be able to login</t>
   </si>
   <si>
-    <t>02/04/2025 05:03:02 PM</t>
-  </si>
-  <si>
     <t>Verify Login with Wrong OTP</t>
   </si>
   <si>
-    <t>02/04/2025 05:03:05 PM</t>
-  </si>
-  <si>
     <t>Verify same email on OTP page</t>
   </si>
   <si>
+    <t>Verify account block after attempting wrong OTP for 5 times</t>
+  </si>
+  <si>
+    <t>Verify Go To Sign In page Navigation</t>
+  </si>
+  <si>
+    <t>Verify that navigation and getOTP blocked for blocked account</t>
+  </si>
+  <si>
     <t>Verify Resend OTP button</t>
   </si>
   <si>
-    <t>02/04/2025 05:04:06 PM</t>
-  </si>
-  <si>
-    <t>Verify account block after attempting wrong OTP for 5 times</t>
-  </si>
-  <si>
-    <t>02/04/2025 05:04:18 PM</t>
-  </si>
-  <si>
-    <t>Verify Go To Sign In page Navigation</t>
-  </si>
-  <si>
-    <t>02/04/2025 05:04:21 PM</t>
-  </si>
-  <si>
-    <t>Verify that navigation and getOTP blocked for blocked account</t>
+    <t>Verify account block after 5 times of resend otp</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -143,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -191,13 +196,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -205,16 +210,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -222,16 +227,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -239,16 +244,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -256,16 +261,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -273,16 +278,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -290,16 +295,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -310,13 +315,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -324,16 +329,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -341,16 +346,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -358,15 +363,32 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s" s="0">
+      <c r="D14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:26 PM</t>
+    <t>21/04/2025 11:03:00 AM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,19 +44,19 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:30 PM</t>
+    <t>21/04/2025 11:03:05 AM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:32 PM</t>
+    <t>21/04/2025 11:03:06 AM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:33 PM</t>
+    <t>21/04/2025 11:03:07 AM</t>
   </si>
   <si>
     <t>Verify admin viewer Shouldn't be able to login</t>
@@ -65,7 +65,7 @@
     <t>Verify Login with Wrong OTP</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:36 PM</t>
+    <t>21/04/2025 11:03:10 AM</t>
   </si>
   <si>
     <t>Verify same email on OTP page</t>
@@ -74,31 +74,37 @@
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:49 PM</t>
+    <t>21/04/2025 11:03:23 AM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:51 PM</t>
+    <t>21/04/2025 11:03:25 AM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>03/04/2025 12:36:52 PM</t>
+    <t>21/04/2025 11:03:26 AM</t>
   </si>
   <si>
     <t>Verify Resend OTP button</t>
   </si>
   <si>
-    <t>03/04/2025 12:37:55 PM</t>
+    <t>21/04/2025 11:04:30 AM</t>
   </si>
   <si>
     <t>Verify account block after 5 times of resend otp</t>
   </si>
   <si>
-    <t>03/04/2025 12:41:07 PM</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>21/04/2025 11:07:42 AM</t>
+  </si>
+  <si>
+    <t>Error message isn't as expected expected [You have reached the maximum login attempts for the day. Please try again after 24 hours.] but found [Max OTP retry limit reached. Please try again later]</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -370,13 +376,13 @@
         <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -384,13 +390,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>8</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>22/04/2025 06:34:13 PM</t>
+    <t>13/05/2025 11:04:40 AM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Navigate to Profile Page</t>
+  </si>
+  <si>
+    <t>13/05/2025 11:04:41 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify profile page loads</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -163,9 +169,26 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>13/05/2025 11:04:40 AM</t>
+    <t>14/05/2025 01:11:39 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -47,10 +47,19 @@
     <t>Navigate to Profile Page</t>
   </si>
   <si>
-    <t>13/05/2025 11:04:41 AM</t>
+    <t>14/05/2025 01:11:40 PM</t>
   </si>
   <si>
     <t xml:space="preserve"> Verify profile page loads</t>
+  </si>
+  <si>
+    <t>14/05/2025 01:11:41 PM</t>
+  </si>
+  <si>
+    <t>Logged out successfully</t>
+  </si>
+  <si>
+    <t>14/05/2025 01:11:42 PM</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,9 +195,26 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,31 +35,70 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>14/05/2025 01:11:39 PM</t>
+    <t>19/05/2025 05:14:24 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
   </si>
   <si>
+    <t>Verify empty email state</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>Test was skipped.</t>
+  </si>
+  <si>
+    <t>Verify Login with Invalid Email</t>
+  </si>
+  <si>
+    <t>Verify Login with Not Registred Email</t>
+  </si>
+  <si>
+    <t>Verify admin viewer Shouldn't be able to login</t>
+  </si>
+  <si>
+    <t>Verify Login with Wrong OTP</t>
+  </si>
+  <si>
+    <t>Verify same email on OTP page</t>
+  </si>
+  <si>
+    <t>Verify account block after attempting wrong OTP for 5 times</t>
+  </si>
+  <si>
+    <t>Verify Go To Sign In page Navigation</t>
+  </si>
+  <si>
+    <t>Verify that navigation and getOTP blocked for blocked account</t>
+  </si>
+  <si>
+    <t>Verify Resend OTP button</t>
+  </si>
+  <si>
+    <t>Verify account block after 5 times of resend otp</t>
+  </si>
+  <si>
     <t>Verify Home Page Loads Successfully</t>
   </si>
   <si>
     <t>Navigate to Profile Page</t>
   </si>
   <si>
-    <t>14/05/2025 01:11:40 PM</t>
+    <t>19/05/2025 05:14:25 PM</t>
   </si>
   <si>
     <t xml:space="preserve"> Verify profile page loads</t>
   </si>
   <si>
-    <t>14/05/2025 01:11:41 PM</t>
+    <t>19/05/2025 05:14:26 PM</t>
   </si>
   <si>
     <t>Logged out successfully</t>
   </si>
   <si>
-    <t>14/05/2025 01:11:42 PM</t>
+    <t>19/05/2025 05:14:27 PM</t>
   </si>
 </sst>
 </file>
@@ -110,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -158,13 +197,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -172,16 +211,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -189,16 +228,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -209,12 +248,199 @@
         <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>19/05/2025 05:14:24 PM</t>
+    <t>19/05/2025 05:19:08 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,61 +44,88 @@
     <t>Verify empty email state</t>
   </si>
   <si>
+    <t>19/05/2025 05:19:11 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Invalid Email</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:19:12 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Not Registred Email</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:19:13 PM</t>
+  </si>
+  <si>
+    <t>Verify admin viewer Shouldn't be able to login</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:19:14 PM</t>
+  </si>
+  <si>
+    <t>Verify Login with Wrong OTP</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:19:16 PM</t>
+  </si>
+  <si>
+    <t>Verify same email on OTP page</t>
+  </si>
+  <si>
+    <t>Verify account block after attempting wrong OTP for 5 times</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:19:28 PM</t>
+  </si>
+  <si>
+    <t>Verify Go To Sign In page Navigation</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:19:31 PM</t>
+  </si>
+  <si>
+    <t>Verify that navigation and getOTP blocked for blocked account</t>
+  </si>
+  <si>
+    <t>Verify Resend OTP button</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>19/05/2025 05:20:36 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resend OTP failed: </t>
+  </si>
+  <si>
+    <t>Verify account block after 5 times of resend otp</t>
+  </si>
+  <si>
     <t>SKIPPED</t>
   </si>
   <si>
     <t>Test was skipped.</t>
   </si>
   <si>
-    <t>Verify Login with Invalid Email</t>
-  </si>
-  <si>
-    <t>Verify Login with Not Registred Email</t>
-  </si>
-  <si>
-    <t>Verify admin viewer Shouldn't be able to login</t>
-  </si>
-  <si>
-    <t>Verify Login with Wrong OTP</t>
-  </si>
-  <si>
-    <t>Verify same email on OTP page</t>
-  </si>
-  <si>
-    <t>Verify account block after attempting wrong OTP for 5 times</t>
-  </si>
-  <si>
-    <t>Verify Go To Sign In page Navigation</t>
-  </si>
-  <si>
-    <t>Verify that navigation and getOTP blocked for blocked account</t>
-  </si>
-  <si>
-    <t>Verify Resend OTP button</t>
-  </si>
-  <si>
-    <t>Verify account block after 5 times of resend otp</t>
-  </si>
-  <si>
     <t>Verify Home Page Loads Successfully</t>
   </si>
   <si>
     <t>Navigate to Profile Page</t>
   </si>
   <si>
-    <t>19/05/2025 05:14:25 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verify profile page loads</t>
   </si>
   <si>
-    <t>19/05/2025 05:14:26 PM</t>
+    <t>19/05/2025 05:20:37 PM</t>
   </si>
   <si>
     <t>Logged out successfully</t>
   </si>
   <si>
-    <t>19/05/2025 05:14:27 PM</t>
+    <t>19/05/2025 05:20:38 PM</t>
   </si>
 </sst>
 </file>
@@ -197,13 +224,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>7</v>
-      </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -211,16 +238,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
-      </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -231,13 +258,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -245,16 +272,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -262,16 +289,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -279,16 +306,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -296,16 +323,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -313,16 +340,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -330,16 +357,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -347,16 +374,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -364,16 +391,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -381,13 +408,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>8</v>
@@ -398,13 +425,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>8</v>
@@ -415,13 +442,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>8</v>
@@ -432,13 +459,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>8</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:08 PM</t>
+    <t>19/05/2025 06:00:16 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,31 +44,28 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:11 PM</t>
+    <t>19/05/2025 06:00:18 PM</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:12 PM</t>
+    <t>19/05/2025 06:00:19 PM</t>
   </si>
   <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:13 PM</t>
+    <t>19/05/2025 06:00:20 PM</t>
   </si>
   <si>
     <t>Verify admin viewer Shouldn't be able to login</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:14 PM</t>
-  </si>
-  <si>
     <t>Verify Login with Wrong OTP</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:16 PM</t>
+    <t>19/05/2025 06:00:24 PM</t>
   </si>
   <si>
     <t>Verify same email on OTP page</t>
@@ -77,37 +74,37 @@
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:28 PM</t>
+    <t>19/05/2025 06:00:36 PM</t>
   </si>
   <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>19/05/2025 05:19:31 PM</t>
+    <t>19/05/2025 06:00:38 PM</t>
   </si>
   <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
+    <t>19/05/2025 06:00:39 PM</t>
+  </si>
+  <si>
     <t>Verify Resend OTP button</t>
   </si>
   <si>
+    <t>19/05/2025 06:01:43 PM</t>
+  </si>
+  <si>
+    <t>Verify account block after 5 times of resend otp</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>19/05/2025 05:20:36 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resend OTP failed: </t>
-  </si>
-  <si>
-    <t>Verify account block after 5 times of resend otp</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>Test was skipped.</t>
+    <t>19/05/2025 06:04:57 PM</t>
+  </si>
+  <si>
+    <t>Error message isn't as expected expected [You have reached the maximum login attempts for the day. Please try again after 24 hours.] but found []</t>
   </si>
   <si>
     <t>Verify Home Page Loads Successfully</t>
@@ -116,16 +113,19 @@
     <t>Navigate to Profile Page</t>
   </si>
   <si>
+    <t>19/05/2025 06:04:58 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Verify profile page loads</t>
   </si>
   <si>
-    <t>19/05/2025 05:20:37 PM</t>
+    <t>19/05/2025 06:04:59 PM</t>
   </si>
   <si>
     <t>Logged out successfully</t>
   </si>
   <si>
-    <t>19/05/2025 05:20:38 PM</t>
+    <t>19/05/2025 06:05:00 PM</t>
   </si>
 </sst>
 </file>
@@ -278,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>8</v>
@@ -289,13 +289,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -306,13 +306,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -323,13 +323,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>8</v>
@@ -340,13 +340,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>8</v>
@@ -357,13 +357,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>8</v>
@@ -377,13 +377,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="E12" t="s" s="0">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -391,16 +391,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -408,13 +408,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>8</v>
@@ -425,13 +425,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>27</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>8</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:16 PM</t>
+    <t>20/05/2025 01:58:33 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -44,88 +44,58 @@
     <t>Verify empty email state</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:18 PM</t>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>Test was skipped.</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:19 PM</t>
-  </si>
-  <si>
     <t>Verify Login with Not Registred Email</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:20 PM</t>
-  </si>
-  <si>
     <t>Verify admin viewer Shouldn't be able to login</t>
   </si>
   <si>
     <t>Verify Login with Wrong OTP</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:24 PM</t>
-  </si>
-  <si>
     <t>Verify same email on OTP page</t>
   </si>
   <si>
     <t>Verify account block after attempting wrong OTP for 5 times</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:36 PM</t>
-  </si>
-  <si>
     <t>Verify Go To Sign In page Navigation</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:38 PM</t>
-  </si>
-  <si>
     <t>Verify that navigation and getOTP blocked for blocked account</t>
   </si>
   <si>
-    <t>19/05/2025 06:00:39 PM</t>
-  </si>
-  <si>
     <t>Verify Resend OTP button</t>
   </si>
   <si>
-    <t>19/05/2025 06:01:43 PM</t>
-  </si>
-  <si>
     <t>Verify account block after 5 times of resend otp</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>19/05/2025 06:04:57 PM</t>
-  </si>
-  <si>
-    <t>Error message isn't as expected expected [You have reached the maximum login attempts for the day. Please try again after 24 hours.] but found []</t>
-  </si>
-  <si>
     <t>Verify Home Page Loads Successfully</t>
   </si>
   <si>
     <t>Navigate to Profile Page</t>
   </si>
   <si>
-    <t>19/05/2025 06:04:58 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verify profile page loads</t>
   </si>
   <si>
-    <t>19/05/2025 06:04:59 PM</t>
+    <t>20/05/2025 01:58:34 PM</t>
   </si>
   <si>
     <t>Logged out successfully</t>
   </si>
   <si>
-    <t>19/05/2025 06:05:00 PM</t>
+    <t>20/05/2025 01:58:35 PM</t>
   </si>
 </sst>
 </file>
@@ -181,6 +151,13 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.9609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.4453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.53515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.09375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -224,13 +201,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -238,16 +215,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -258,13 +235,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -272,16 +249,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -289,16 +266,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -306,16 +283,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -323,16 +300,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -340,16 +317,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -357,16 +334,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -374,16 +351,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -391,16 +368,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -408,13 +385,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>8</v>
@@ -425,13 +402,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>8</v>
@@ -442,13 +419,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>8</v>
@@ -459,13 +436,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>8</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>20/05/2025 01:58:33 PM</t>
+    <t>03/06/2025 01:52:49 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -47,7 +47,7 @@
     <t>SKIPPED</t>
   </si>
   <si>
-    <t>Test was skipped.</t>
+    <t>Skipping invalid login test as per config</t>
   </si>
   <si>
     <t>Verify Login with Invalid Email</t>
@@ -86,16 +86,16 @@
     <t>Navigate to Profile Page</t>
   </si>
   <si>
+    <t>03/06/2025 01:52:50 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Verify profile page loads</t>
   </si>
   <si>
-    <t>20/05/2025 01:58:34 PM</t>
-  </si>
-  <si>
     <t>Logged out successfully</t>
   </si>
   <si>
-    <t>20/05/2025 01:58:35 PM</t>
+    <t>03/06/2025 01:52:51 PM</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
     <col min="2" max="2" width="56.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.4453125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="23.53515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.09375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="35.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -408,7 +408,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>8</v>
@@ -419,13 +419,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>8</v>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -35,7 +35,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03/06/2025 01:52:49 PM</t>
+    <t>04/06/2025 03:51:11 PM</t>
   </si>
   <si>
     <t>Test executed successfully.</t>
@@ -86,7 +86,7 @@
     <t>Navigate to Profile Page</t>
   </si>
   <si>
-    <t>03/06/2025 01:52:50 PM</t>
+    <t>04/06/2025 03:51:12 PM</t>
   </si>
   <si>
     <t xml:space="preserve"> Verify profile page loads</t>
@@ -95,7 +95,7 @@
     <t>Logged out successfully</t>
   </si>
   <si>
-    <t>03/06/2025 01:52:51 PM</t>
+    <t>04/06/2025 03:51:13 PM</t>
   </si>
 </sst>
 </file>
